--- a/medicine/Sexualité et sexologie/Carl_Tänzler/Carl_Tänzler.xlsx
+++ b/medicine/Sexualité et sexologie/Carl_Tänzler/Carl_Tänzler.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Carl_T%C3%A4nzler</t>
+          <t>Carl_Tänzler</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Carl Tänzler, de son nom complet Georg Carl Tänzler (mais il signe des registres médicaux en tant que comte Carl von Cosel), (8 février 1877 - 3 juillet 1952), né en Allemagne, était un manipulateur en électroradiologie médicale à l’hôpital militaire de Key West en Floride qui avait développé une obsession morbide pour une jeune Cubano-Américaine atteinte de tuberculose, Elena Milagro de Hoyos (31 juillet 1909 - 25 octobre 1931), dite Helen. En 1933, près de deux ans après sa mort, Tänzler sort le corps de Helen de Hoyos de sa tombe, et vit avec ce corps chez lui pendant près de sept ans, jusqu'à ce que la famille de la jeune Hoyos découvre le fait en 1940[1].
+Carl Tänzler, de son nom complet Georg Carl Tänzler (mais il signe des registres médicaux en tant que comte Carl von Cosel), (8 février 1877 - 3 juillet 1952), né en Allemagne, était un manipulateur en électroradiologie médicale à l’hôpital militaire de Key West en Floride qui avait développé une obsession morbide pour une jeune Cubano-Américaine atteinte de tuberculose, Elena Milagro de Hoyos (31 juillet 1909 - 25 octobre 1931), dite Helen. En 1933, près de deux ans après sa mort, Tänzler sort le corps de Helen de Hoyos de sa tombe, et vit avec ce corps chez lui pendant près de sept ans, jusqu'à ce que la famille de la jeune Hoyos découvre le fait en 1940.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Carl_T%C3%A4nzler</t>
+          <t>Carl_Tänzler</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Tänzler disait avoir eu des visions de l'une de ses ancêtres, Anne-Constance de Brockdorff, comtesse de Cosel, lui prédisant la rencontre d'une femme exotique, aux cheveux noirs, qui serait la femme de sa vie.
 En 1926, laissant sa femme et ses deux enfants, il émigre aux États-Unis ; il a 49 ans. Il travaille dans un hôpital et rencontre une jeune femme de 21 ans, atteinte de tuberculose, Elena Milagro « Helen » de Hoyos. Tänzler pense que sa vision se réalise, et tente tout pour la soigner. Elle meurt tout de même en octobre 1931 ; il paie ses funérailles, lui fait construire un mausolée à Key West et va s'y recueillir chaque nuit.
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Carl_T%C3%A4nzler</t>
+          <t>Carl_Tänzler</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Dans la culture populaire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le groupe …And You Will Know Us by the Trail of Dead a sorti en 2003 un EP intitulé The Secret of Elena's Tomb (en) racontant cette histoire.
 Le groupe de [death Metal] The Black Dahlia Murder raconte cette histoire dans la chanson Deathmask Divine.
